--- a/backend/src/templates/template_rub.xlsx
+++ b/backend/src/templates/template_rub.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogdansitkiv/Documents/Гринлайн /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33BD123-1DF1-40DF-B87F-87A7777282A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2EF579-2F07-4FE2-A2AC-977345D740A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="рубли - рубли" sheetId="1" r:id="rId1"/>
-    <sheet name="Импорт " sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Анализ рентабельности проекта</t>
   </si>
@@ -176,295 +175,18 @@
   <si>
     <t xml:space="preserve">% доли *** в прибыли </t>
   </si>
-  <si>
-    <t xml:space="preserve">Товар </t>
-  </si>
-  <si>
-    <t xml:space="preserve">кол-во </t>
-  </si>
-  <si>
-    <t>стоимость за ед</t>
-  </si>
-  <si>
-    <t>сумма</t>
-  </si>
-  <si>
-    <t>Коэфицент</t>
-  </si>
-  <si>
-    <t>КОД ТН ВЭД</t>
-  </si>
-  <si>
-    <t>Пошлина</t>
-  </si>
-  <si>
-    <t>Пошлина в Рублях</t>
-  </si>
-  <si>
-    <t>Таможенный НДС</t>
-  </si>
-  <si>
-    <t>Цена за ед. без НДС</t>
-  </si>
-  <si>
-    <t>Сумма без НДС</t>
-  </si>
-  <si>
-    <t>Цена за ед. с НДС</t>
-  </si>
-  <si>
-    <t>Сумма с НДС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Для подачи </t>
-  </si>
-  <si>
-    <t>Товар 1</t>
-  </si>
-  <si>
-    <t>Euro</t>
-  </si>
-  <si>
-    <t>НДС</t>
-  </si>
-  <si>
-    <t>Запчасти для лунахода</t>
-  </si>
-  <si>
-    <t>Товар 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курс </t>
-  </si>
-  <si>
-    <t>Онлайн обновление с ЦБ</t>
-  </si>
-  <si>
-    <t>Товар 3</t>
-  </si>
-  <si>
-    <t>Коэф</t>
-  </si>
-  <si>
-    <t>Товар 4</t>
-  </si>
-  <si>
-    <t>Валюта, курс закупки:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP </t>
-  </si>
-  <si>
-    <t>Товар 5</t>
-  </si>
-  <si>
-    <t>RUB</t>
-  </si>
-  <si>
-    <t>Товар 6</t>
-  </si>
-  <si>
-    <t>Сумма закупа в рублях</t>
-  </si>
-  <si>
-    <t>Товар 7</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Товар 8</t>
-  </si>
-  <si>
-    <t>Товар 9</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>Товар 10</t>
-  </si>
-  <si>
-    <t>Товар 11</t>
-  </si>
-  <si>
-    <t>Услуги Агента</t>
-  </si>
-  <si>
-    <t>Тотал</t>
-  </si>
-  <si>
-    <t>Доствка до РФ</t>
-  </si>
-  <si>
-    <t>Срок доставки до РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комиссия за перевод </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка </t>
-  </si>
-  <si>
-    <t>Доставка по РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аванс на завод </t>
-  </si>
-  <si>
-    <t>Срок достаки по РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комиссия с перевода </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Второй платеж </t>
-  </si>
-  <si>
-    <t>Таможня</t>
-  </si>
-  <si>
-    <t>Конвертация</t>
-  </si>
-  <si>
-    <t>Дней на оформление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аванс от заказчика </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первый </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификация </t>
-  </si>
-  <si>
-    <t xml:space="preserve">НДС с аванса </t>
-  </si>
-  <si>
-    <t>без НДС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финальный </t>
-  </si>
-  <si>
-    <t>НДС с вторгого платежа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма заемных средств </t>
-  </si>
-  <si>
-    <t>Остаток после аванса</t>
-  </si>
-  <si>
-    <t>Оплата с НДС</t>
-  </si>
-  <si>
-    <t>на оплату перед отгрузкой отгрузкой:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калькуляция по заему </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Остаток </t>
-  </si>
-  <si>
-    <t>Проценты</t>
-  </si>
-  <si>
-    <t>Процены без аванса</t>
-  </si>
-  <si>
-    <t>Ост</t>
-  </si>
-  <si>
-    <t>1 pay аванс завод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Требуемые средства на таможне </t>
-  </si>
-  <si>
-    <t>2 pay оплата завод</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 pay логистика </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Затраты </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 pay таможня </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кредит на таможню </t>
-  </si>
-  <si>
-    <t>5 pay доставка по РФ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого на займ </t>
-  </si>
-  <si>
-    <t>Выручка:</t>
-  </si>
-  <si>
-    <t>Вручка компании за вычетом НДС:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наценка </t>
-  </si>
-  <si>
-    <t>Себестоимость</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альтертива </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сумма контракта </t>
-  </si>
-  <si>
-    <t>из них НДС</t>
-  </si>
-  <si>
-    <t>За вычетом НДС</t>
-  </si>
-  <si>
-    <t>Затраты без НДС</t>
-  </si>
-  <si>
-    <t>Пр. расходы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выручка </t>
-  </si>
-  <si>
-    <t>ЧП</t>
-  </si>
-  <si>
-    <t>Рента</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;RUB&quot;_-;\-* #,##0.00\ &quot;RUB&quot;_-;_-* &quot;-&quot;??\ &quot;RUB&quot;_-;_-@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;RUB&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="170" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="8">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -516,119 +238,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u val="singleAccounting"/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="6" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,62 +276,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FF8DB3E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor rgb="FF8DB3E2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="75">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -910,763 +467,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="mediumDashed">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="dotted">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="dotted">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1783,428 +588,10 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="12" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="13" fillId="8" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="14" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="67" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="13" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="14" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="12" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="12" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2235,15 +622,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2271,65 +649,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2548,7 +870,9 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2567,19 +891,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="10.5" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="251" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="252"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="254"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -2599,15 +923,15 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="263"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="2"/>
       <c r="L2" s="5"/>
       <c r="M2" s="6"/>
@@ -2630,7 +954,7 @@
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="238"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2659,13 +983,13 @@
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="257"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2724,11 +1048,11 @@
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="258">
+      <c r="C6" s="59">
         <v>2000000</v>
       </c>
-      <c r="D6" s="254"/>
-      <c r="E6" s="254"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2756,8 +1080,8 @@
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44">
-        <v>6</v>
+      <c r="C7" s="40">
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2788,13 +1112,13 @@
       <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="239" t="s">
+      <c r="C8" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="15">
         <v>0.5</v>
       </c>
-      <c r="E8" s="240" t="s">
+      <c r="E8" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="16">
@@ -2853,13 +1177,13 @@
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="255" t="s">
+      <c r="B10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="257"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2918,11 +1242,11 @@
       <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="258">
+      <c r="C12" s="59">
         <v>3000000</v>
       </c>
-      <c r="D12" s="254"/>
-      <c r="E12" s="254"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2950,9 +1274,9 @@
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="241">
+      <c r="C13" s="45">
         <f>C7+C18</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2983,13 +1307,13 @@
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="239" t="s">
+      <c r="C14" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="15">
         <v>0.5</v>
       </c>
-      <c r="E14" s="240" t="s">
+      <c r="E14" s="44" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="16">
@@ -3048,13 +1372,13 @@
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="257"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3081,7 +1405,7 @@
       <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="242">
+      <c r="C17" s="46">
         <v>50000</v>
       </c>
       <c r="D17" s="2"/>
@@ -3113,7 +1437,7 @@
       <c r="B18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="40">
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
@@ -3148,9 +1472,9 @@
       <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="244"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -3206,13 +1530,13 @@
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="259" t="s">
+      <c r="B21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="261"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3628,13 +1952,13 @@
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="255" t="s">
+      <c r="B34" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="256"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="257"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -3696,7 +2020,7 @@
       <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="245">
+      <c r="C36" s="49">
         <f>E36</f>
         <v>250000</v>
       </c>
@@ -3707,7 +2031,7 @@
         <f>C12/1.2*D36</f>
         <v>250000</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="34"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -3734,7 +2058,7 @@
       <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="245">
+      <c r="C37" s="49">
         <v>0</v>
       </c>
       <c r="D37" s="2"/>
@@ -3766,13 +2090,13 @@
       <c r="B38" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="246">
+      <c r="C38" s="50">
         <f>SUM(C35:C37)</f>
         <v>370000</v>
       </c>
-      <c r="D38" s="247"/>
-      <c r="E38" s="243"/>
-      <c r="F38" s="244"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -3824,13 +2148,13 @@
     </row>
     <row r="40" spans="1:26" ht="11.25" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="255" t="s">
+      <c r="B40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="256"/>
-      <c r="F40" s="257"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="36"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -4104,10 +2428,10 @@
     <row r="49" spans="1:26" ht="11.25" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="246"/>
-      <c r="D49" s="247"/>
-      <c r="E49" s="243"/>
-      <c r="F49" s="244"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="36"/>
       <c r="H49" s="39"/>
       <c r="I49" s="5"/>
@@ -30746,2498 +29070,4 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AC77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="8" max="8" width="31.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="16" width="8.1640625" customWidth="1"/>
-    <col min="17" max="17" width="25.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="21.1640625" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" style="155"/>
-    <col min="26" max="29" width="19.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="251" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="252"/>
-      <c r="I1" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="266" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="159" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="263"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="57">
-        <v>2</v>
-      </c>
-      <c r="K2" s="57">
-        <v>14400</v>
-      </c>
-      <c r="L2" s="128">
-        <f>J2*K2+$L$13*(K2/SUM(K2:K12))</f>
-        <v>37128.109973076935</v>
-      </c>
-      <c r="M2" s="134">
-        <f>K2/SUM($K$2:$K$12)</f>
-        <v>0.48432665141934617</v>
-      </c>
-      <c r="N2" s="134">
-        <f>(S2+T2)/($S$14+$T$14)</f>
-        <v>0.39853784624017552</v>
-      </c>
-      <c r="O2" s="134">
-        <f>L2/$L$14</f>
-        <v>0.34063663213236212</v>
-      </c>
-      <c r="P2" s="134">
-        <f>(M2+N2+O2)/3</f>
-        <v>0.40783370993062795</v>
-      </c>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="169">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="114">
-        <f>L2*R2*$G$13</f>
-        <v>243040.60788376158</v>
-      </c>
-      <c r="T2" s="124">
-        <f>(L2*$G$13+S2)*$F$3</f>
-        <v>944617.82930822007</v>
-      </c>
-      <c r="U2" s="137">
-        <f>IF(V2&gt;0,V2/J2,0)</f>
-        <v>5299269.1748351734</v>
-      </c>
-      <c r="V2" s="138">
-        <f>X2/(1+$F$3)</f>
-        <v>10598538.349670347</v>
-      </c>
-      <c r="W2" s="146">
-        <f>IF(X2&gt;0,X2/J2,0)</f>
-        <v>6465108.3932989119</v>
-      </c>
-      <c r="X2" s="156">
-        <f>$D$14*P2</f>
-        <v>12930216.786597824</v>
-      </c>
-      <c r="Y2" s="160" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="158">
-        <f>U2/$Y$4</f>
-        <v>53098.889527406551</v>
-      </c>
-      <c r="AA2" s="152">
-        <f>V2/$Y$4</f>
-        <v>106197.7790548131</v>
-      </c>
-      <c r="AB2" s="152">
-        <f>W2/$Y$4</f>
-        <v>64780.645223435989</v>
-      </c>
-      <c r="AC2" s="152">
-        <f>X2/$Y$4</f>
-        <v>129561.29044687198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="82">
-        <v>0.22</v>
-      </c>
-      <c r="G3" s="273" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="274"/>
-      <c r="I3" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="57">
-        <v>4</v>
-      </c>
-      <c r="K3" s="57">
-        <v>12500</v>
-      </c>
-      <c r="L3" s="128">
-        <f>J3*K3+$L$13*(K3/SUM(K2:K12))</f>
-        <v>57229.262129407063</v>
-      </c>
-      <c r="M3" s="134">
-        <f>K3/SUM($K$2:$K$12)</f>
-        <v>0.42042244046818245</v>
-      </c>
-      <c r="N3" s="134">
-        <f t="shared" ref="N3:N12" si="0">(S3+T3)/($S$14+$T$14)</f>
-        <v>0.46093914193992291</v>
-      </c>
-      <c r="O3" s="134">
-        <f t="shared" ref="O3:O12" si="1">L3/$L$14</f>
-        <v>0.52505724437138079</v>
-      </c>
-      <c r="P3" s="134">
-        <f t="shared" ref="P3:P12" si="2">(M3+N3+O3)/3</f>
-        <v>0.46880627559316207</v>
-      </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="170">
-        <v>0</v>
-      </c>
-      <c r="S3" s="115">
-        <f>L3*R3*$G$13</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="125">
-        <f>(L3*$G$13+S3)*$F$3</f>
-        <v>1373616.7496300281</v>
-      </c>
-      <c r="U3" s="137">
-        <f>IF(V3&gt;0,V3/J3,0)</f>
-        <v>3045764.2229264332</v>
-      </c>
-      <c r="V3" s="138">
-        <f t="shared" ref="V3:V12" si="3">X3/(1+$F$3)</f>
-        <v>12183056.891705733</v>
-      </c>
-      <c r="W3" s="146">
-        <f>IF(X3&gt;0,X3/J3,0)</f>
-        <v>3715832.3519702484</v>
-      </c>
-      <c r="X3" s="156">
-        <f t="shared" ref="X3:X12" si="4">$D$14*P3</f>
-        <v>14863329.407880994</v>
-      </c>
-      <c r="Y3" s="161" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="158">
-        <f>U3/$Y$4</f>
-        <v>30518.679588441217</v>
-      </c>
-      <c r="AA3" s="152">
-        <f>V3/$Y$4</f>
-        <v>122074.71835376487</v>
-      </c>
-      <c r="AB3" s="152">
-        <f>W3/$Y$4</f>
-        <v>37232.789097898283</v>
-      </c>
-      <c r="AC3" s="152">
-        <f>X3/$Y$4</f>
-        <v>148931.15639159313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="283" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="57">
-        <v>3</v>
-      </c>
-      <c r="K4" s="57">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="128">
-        <f>J4*K4+$L$13*(K4/SUM(K2:K12))</f>
-        <v>3578.3409703525649</v>
-      </c>
-      <c r="M4" s="134">
-        <f>K4/SUM($K$2:$K$12)</f>
-        <v>3.3633795237454592E-2</v>
-      </c>
-      <c r="N4" s="134">
-        <f t="shared" si="0"/>
-        <v>3.2017372167143808E-2</v>
-      </c>
-      <c r="O4" s="134">
-        <f t="shared" si="1"/>
-        <v>3.2829950612784473E-2</v>
-      </c>
-      <c r="P4" s="134">
-        <f t="shared" si="2"/>
-        <v>3.2827039339127624E-2</v>
-      </c>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="170">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="115">
-        <f>L4*R4*$G$13</f>
-        <v>7807.9399973092959</v>
-      </c>
-      <c r="T4" s="125">
-        <f>(L4*$G$13+S4)*$F$3</f>
-        <v>87605.08676981031</v>
-      </c>
-      <c r="U4" s="137">
-        <f>IF(V4&gt;0,V4/J4,0)</f>
-        <v>284363.15003735368</v>
-      </c>
-      <c r="V4" s="138">
-        <f t="shared" si="3"/>
-        <v>853089.45011206111</v>
-      </c>
-      <c r="W4" s="146">
-        <f>IF(X4&gt;0,X4/J4,0)</f>
-        <v>346923.04304557148</v>
-      </c>
-      <c r="X4" s="156">
-        <f t="shared" si="4"/>
-        <v>1040769.1291367145</v>
-      </c>
-      <c r="Y4" s="162">
-        <f>VLOOKUP(Y2,G8:H11,2,FALSE)</f>
-        <v>99.8</v>
-      </c>
-      <c r="Z4" s="158">
-        <f>U4/$Y$4</f>
-        <v>2849.3301606949267</v>
-      </c>
-      <c r="AA4" s="152">
-        <f>V4/$Y$4</f>
-        <v>8547.9904820847805</v>
-      </c>
-      <c r="AB4" s="152">
-        <f>W4/$Y$4</f>
-        <v>3476.1827960478104</v>
-      </c>
-      <c r="AC4" s="152">
-        <f>X4/$Y$4</f>
-        <v>10428.548388143432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="57">
-        <v>2</v>
-      </c>
-      <c r="K5" s="57">
-        <v>144</v>
-      </c>
-      <c r="L5" s="128">
-        <f>J5*K5+$L$13*(K5/SUM(K2:K12))</f>
-        <v>371.28109973076937</v>
-      </c>
-      <c r="M5" s="134">
-        <f>K5/SUM($K$2:$K$12)</f>
-        <v>4.8432665141934618E-3</v>
-      </c>
-      <c r="N5" s="134">
-        <f t="shared" si="0"/>
-        <v>3.487885789400718E-3</v>
-      </c>
-      <c r="O5" s="134">
-        <f t="shared" si="1"/>
-        <v>3.4063663213236214E-3</v>
-      </c>
-      <c r="P5" s="134">
-        <f t="shared" si="2"/>
-        <v>3.9125062083059338E-3</v>
-      </c>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="170">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="115">
-        <f>L5*R5*$G$13</f>
-        <v>1215.203039418808</v>
-      </c>
-      <c r="T5" s="125">
-        <f>(L5*$G$13+S5)*$F$3</f>
-        <v>9178.8336244100647</v>
-      </c>
-      <c r="U5" s="137">
-        <f>IF(V5&gt;0,V5/J5,0)</f>
-        <v>50837.934778745024</v>
-      </c>
-      <c r="V5" s="138">
-        <f t="shared" si="3"/>
-        <v>101675.86955749005</v>
-      </c>
-      <c r="W5" s="146">
-        <f>IF(X5&gt;0,X5/J5,0)</f>
-        <v>62022.280430068924</v>
-      </c>
-      <c r="X5" s="149">
-        <f t="shared" si="4"/>
-        <v>124044.56086013785</v>
-      </c>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="152">
-        <f>U5/$Y$4</f>
-        <v>509.39814407560146</v>
-      </c>
-      <c r="AA5" s="152">
-        <f>V5/$Y$4</f>
-        <v>1018.7962881512029</v>
-      </c>
-      <c r="AB5" s="152">
-        <f>W5/$Y$4</f>
-        <v>621.46573577223376</v>
-      </c>
-      <c r="AC5" s="152">
-        <f>X5/$Y$4</f>
-        <v>1242.9314715444675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="50">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E6" s="79">
-        <f>VLOOKUP(C6,G6:H11,2,FALSE)*(1+D6)</f>
-        <v>110.73649999999998</v>
-      </c>
-      <c r="F6" s="200"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="57">
-        <v>6</v>
-      </c>
-      <c r="K6" s="57">
-        <v>1579</v>
-      </c>
-      <c r="L6" s="128">
-        <f>J6*K6+$L$13*(K6/SUM(K2:K12))</f>
-        <v>10387.2003921867</v>
-      </c>
-      <c r="M6" s="134">
-        <f>K6/SUM($K$2:$K$12)</f>
-        <v>5.3107762679940808E-2</v>
-      </c>
-      <c r="N6" s="134">
-        <f t="shared" si="0"/>
-        <v>0.10221874305781099</v>
-      </c>
-      <c r="O6" s="134">
-        <f t="shared" si="1"/>
-        <v>9.5298709291805103E-2</v>
-      </c>
-      <c r="P6" s="134">
-        <f t="shared" si="2"/>
-        <v>8.3541738343185637E-2</v>
-      </c>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="170">
-        <v>0.04</v>
-      </c>
-      <c r="S6" s="115">
-        <f>L6*R6*$G$13</f>
-        <v>45329.742511502758</v>
-      </c>
-      <c r="T6" s="125">
-        <f>(L6*$G$13+S6)*$F$3</f>
-        <v>259286.12716579574</v>
-      </c>
-      <c r="U6" s="137">
-        <f>IF(V6&gt;0,V6/J6,0)</f>
-        <v>361838.78219180211</v>
-      </c>
-      <c r="V6" s="138">
-        <f t="shared" si="3"/>
-        <v>2171032.6931508128</v>
-      </c>
-      <c r="W6" s="146">
-        <f>IF(X6&gt;0,X6/J6,0)</f>
-        <v>441443.31427399861</v>
-      </c>
-      <c r="X6" s="149">
-        <f t="shared" si="4"/>
-        <v>2648659.8856439916</v>
-      </c>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="152">
-        <f>U6/$Y$4</f>
-        <v>3625.6391001182578</v>
-      </c>
-      <c r="AA6" s="152">
-        <f>V6/$Y$4</f>
-        <v>21753.834600709546</v>
-      </c>
-      <c r="AB6" s="152">
-        <f>W6/$Y$4</f>
-        <v>4423.2797021442748</v>
-      </c>
-      <c r="AC6" s="152">
-        <f>X6/$Y$4</f>
-        <v>26539.678212865649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="63" t="str">
-        <f>CONCATENATE("Закупка в ",C6)</f>
-        <v xml:space="preserve">Закупка в GBP </v>
-      </c>
-      <c r="C7" s="67">
-        <f>L14</f>
-        <v>108996.23373052245</v>
-      </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="174" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="57">
-        <v>2</v>
-      </c>
-      <c r="K7" s="57">
-        <v>100</v>
-      </c>
-      <c r="L7" s="128">
-        <f>J7*K7+$L$13*(K7/SUM(K2:K12))</f>
-        <v>257.83409703525649</v>
-      </c>
-      <c r="M7" s="134">
-        <f>K7/SUM($K$2:$K$12)</f>
-        <v>3.3633795237454594E-3</v>
-      </c>
-      <c r="N7" s="134">
-        <f t="shared" si="0"/>
-        <v>2.387594807014315E-3</v>
-      </c>
-      <c r="O7" s="134">
-        <f t="shared" si="1"/>
-        <v>2.365532167585848E-3</v>
-      </c>
-      <c r="P7" s="134">
-        <f t="shared" si="2"/>
-        <v>2.7055021661152073E-3</v>
-      </c>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="170">
-        <v>2.7E-2</v>
-      </c>
-      <c r="S7" s="115">
-        <f>L7*R7*$G$13</f>
-        <v>759.50189963675507</v>
-      </c>
-      <c r="T7" s="125">
-        <f>(L7*$G$13+S7)*$F$3</f>
-        <v>6355.6244149603117</v>
-      </c>
-      <c r="U7" s="137">
-        <f>IF(V7&gt;0,V7/J7,0)</f>
-        <v>35154.485473461347</v>
-      </c>
-      <c r="V7" s="138">
-        <f t="shared" si="3"/>
-        <v>70308.970946922695</v>
-      </c>
-      <c r="W7" s="146">
-        <f>IF(X7&gt;0,X7/J7,0)</f>
-        <v>42888.472277622845</v>
-      </c>
-      <c r="X7" s="149">
-        <f t="shared" si="4"/>
-        <v>85776.944555245689</v>
-      </c>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="152">
-        <f>U7/$Y$4</f>
-        <v>352.24935344149645</v>
-      </c>
-      <c r="AA7" s="152">
-        <f>V7/$Y$4</f>
-        <v>704.49870688299291</v>
-      </c>
-      <c r="AB7" s="152">
-        <f>W7/$Y$4</f>
-        <v>429.74421119862569</v>
-      </c>
-      <c r="AC7" s="152">
-        <f>X7/$Y$4</f>
-        <v>859.48842239725138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="66">
-        <f>C7*(1+C21)*E6</f>
-        <v>12371607.972412497</v>
-      </c>
-      <c r="D8" s="198"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="174" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="175">
-        <v>99.8</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="57">
-        <v>1</v>
-      </c>
-      <c r="K8" s="57">
-        <v>4</v>
-      </c>
-      <c r="L8" s="128">
-        <f>J8*K8+$L$13*(K8/SUM(K2:K12))</f>
-        <v>6.3133638814102593</v>
-      </c>
-      <c r="M8" s="134">
-        <f>K8/SUM($K$2:$K$12)</f>
-        <v>1.3453518094981839E-4</v>
-      </c>
-      <c r="N8" s="134">
-        <f t="shared" si="0"/>
-        <v>5.9120961083195981E-5</v>
-      </c>
-      <c r="O8" s="134">
-        <f t="shared" si="1"/>
-        <v>5.7922770955729953E-5</v>
-      </c>
-      <c r="P8" s="134">
-        <f t="shared" si="2"/>
-        <v>8.3859637662914765E-5</v>
-      </c>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="170">
-        <v>2.9333333333333302E-2</v>
-      </c>
-      <c r="S8" s="115">
-        <f>L8*R8*$G$13</f>
-        <v>20.204447984214518</v>
-      </c>
-      <c r="T8" s="125">
-        <f>(L8*$G$13+S8)*$F$3</f>
-        <v>155.97833843813623</v>
-      </c>
-      <c r="U8" s="137">
-        <f>IF(V8&gt;0,V8/J8,0)</f>
-        <v>2179.2940703970844</v>
-      </c>
-      <c r="V8" s="138">
-        <f t="shared" si="3"/>
-        <v>2179.2940703970844</v>
-      </c>
-      <c r="W8" s="146">
-        <f>IF(X8&gt;0,X8/J8,0)</f>
-        <v>2658.7387658844427</v>
-      </c>
-      <c r="X8" s="149">
-        <f t="shared" si="4"/>
-        <v>2658.7387658844427</v>
-      </c>
-      <c r="Y8" s="164"/>
-      <c r="Z8" s="152">
-        <f>U8/$Y$4</f>
-        <v>21.836613931834513</v>
-      </c>
-      <c r="AA8" s="152">
-        <f>V8/$Y$4</f>
-        <v>21.836613931834513</v>
-      </c>
-      <c r="AB8" s="152">
-        <f>W8/$Y$4</f>
-        <v>26.640668996838105</v>
-      </c>
-      <c r="AC8" s="152">
-        <f>X8/$Y$4</f>
-        <v>26.640668996838105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="44">
-        <v>6</v>
-      </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="174" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="176">
-        <v>78.5</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="57">
-        <v>7</v>
-      </c>
-      <c r="K9" s="57">
-        <v>5</v>
-      </c>
-      <c r="L9" s="128">
-        <f>J9*K9+$L$13*(K9/SUM(K2:K12))</f>
-        <v>37.891704851762825</v>
-      </c>
-      <c r="M9" s="134">
-        <f>K9/SUM($K$2:$K$12)</f>
-        <v>1.6816897618727298E-4</v>
-      </c>
-      <c r="N9" s="134">
-        <f t="shared" si="0"/>
-        <v>3.5229503744855915E-4</v>
-      </c>
-      <c r="O9" s="134">
-        <f t="shared" si="1"/>
-        <v>3.4764233180244219E-4</v>
-      </c>
-      <c r="P9" s="134">
-        <f t="shared" si="2"/>
-        <v>2.8936878181275811E-4</v>
-      </c>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="170">
-        <v>2.78333333333333E-2</v>
-      </c>
-      <c r="S9" s="115">
-        <f>L9*R9*$G$13</f>
-        <v>115.06258248127705</v>
-      </c>
-      <c r="T9" s="125">
-        <f>(L9*$G$13+S9)*$F$3</f>
-        <v>934.79046799789216</v>
-      </c>
-      <c r="U9" s="137">
-        <f>IF(V9&gt;0,V9/J9,0)</f>
-        <v>1074.2775290734417</v>
-      </c>
-      <c r="V9" s="138">
-        <f t="shared" si="3"/>
-        <v>7519.9427035140916</v>
-      </c>
-      <c r="W9" s="146">
-        <f>IF(X9&gt;0,X9/J9,0)</f>
-        <v>1310.6185854695989</v>
-      </c>
-      <c r="X9" s="149">
-        <f t="shared" si="4"/>
-        <v>9174.3300982871915</v>
-      </c>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="152">
-        <f>U9/$Y$4</f>
-        <v>10.76430389853148</v>
-      </c>
-      <c r="AA9" s="152">
-        <f>V9/$Y$4</f>
-        <v>75.350127289720362</v>
-      </c>
-      <c r="AB9" s="152">
-        <f>W9/$Y$4</f>
-        <v>13.132450756208407</v>
-      </c>
-      <c r="AC9" s="152">
-        <f>X9/$Y$4</f>
-        <v>91.927155293458839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="197">
-        <f>100%-D10</f>
-        <v>0.7</v>
-      </c>
-      <c r="G10" s="174" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="177">
-        <v>109.1</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="128">
-        <f>J10*K10+$L$13*(K10/SUM(K2:K12))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="134">
-        <f>K10/SUM($K$2:$K$12)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="170">
-        <v>2.6333333333333299E-2</v>
-      </c>
-      <c r="S10" s="115">
-        <f>L10*R10*$G$13</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="125">
-        <f>(L10*$G$13+S10)*$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="137">
-        <f>IF(V10&gt;0,V10/J10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="138">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="146">
-        <f>IF(X10&gt;0,X10/J10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="149">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="152">
-        <f>U10/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="152">
-        <f>V10/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="152">
-        <f>W10/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="152">
-        <f>X10/$Y$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="174" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="178">
-        <v>11.7</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="128">
-        <f>J11*K11+$L$13*(K11/SUM(K2:K12))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="134">
-        <f>K11/SUM($K$2:$K$12)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="170">
-        <v>2.4833333333333301E-2</v>
-      </c>
-      <c r="S11" s="115">
-        <f>L11*R11*$G$13</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="125">
-        <f>(L11*$G$13+S11)*$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="137">
-        <f>IF(V11&gt;0,V11/J11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="138">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="146">
-        <f>IF(X11&gt;0,X11/J11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="149">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="152">
-        <f>U11/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="152">
-        <f>V11/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="152">
-        <f>W11/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="152">
-        <f>X11/$Y$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="255" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="129">
-        <f>J12*K12+$L$13*(K12/SUM(K2:K12))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="134">
-        <f>K12/SUM($K$2:$K$12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="134">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="134">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="171">
-        <v>2.33333333333333E-2</v>
-      </c>
-      <c r="S12" s="98">
-        <f>L12*R12*$G$13</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="126">
-        <f>(L12*$G$13+S12)*$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="139">
-        <f>IF(V12&gt;0,V12/J12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="140">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="147">
-        <f>IF(X12&gt;0,X12/J12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="152">
-        <f>U12/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="152">
-        <f>V12/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="152">
-        <f>W12/$Y$4</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="152">
-        <f>X12/$Y$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="203" t="str">
-        <f>Y2</f>
-        <v>Euro</v>
-      </c>
-      <c r="D13" s="193" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="179">
-        <f>VLOOKUP(C6,G8:H11,2,FALSE)</f>
-        <v>109.1</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="70">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="71">
-        <f>E19</f>
-        <v>7195.2337305224582</v>
-      </c>
-      <c r="L13" s="72">
-        <f>J13+K13</f>
-        <v>17195.233730522457</v>
-      </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="142"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-    </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="205">
-        <f>AC14</f>
-        <v>317681.66115770623</v>
-      </c>
-      <c r="D14" s="204">
-        <f>F58*(1+E58)</f>
-        <v>31704629.783539075</v>
-      </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="277" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="278"/>
-      <c r="K14" s="278"/>
-      <c r="L14" s="61">
-        <f>SUM(L2:L12)</f>
-        <v>108996.23373052245</v>
-      </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107">
-        <f>SUM(S2:S12)</f>
-        <v>298288.26236209477</v>
-      </c>
-      <c r="T14" s="108">
-        <f>SUM(T2:T12)</f>
-        <v>2681751.0197196607</v>
-      </c>
-      <c r="U14" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="144">
-        <f>SUM(V2:V12)</f>
-        <v>25987401.461917277</v>
-      </c>
-      <c r="W14" s="143" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="144">
-        <f>SUM(X2:X12)</f>
-        <v>31704629.783539079</v>
-      </c>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA14" s="154">
-        <f>SUM(AA2:AA12)</f>
-        <v>260394.80422762805</v>
-      </c>
-      <c r="AB14" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC14" s="154">
-        <f>SUM(AC2:AC12)</f>
-        <v>317681.66115770623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="248">
-        <f>C9+C23</f>
-        <v>7</v>
-      </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-    </row>
-    <row r="16" spans="1:29" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="239" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="240" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="197">
-        <f>100%-D16</f>
-        <v>0.7</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="255" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="47">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="79">
-        <f>C19*(VLOOKUP(D19,G8:H11,2,FALSE)*(1+D6))/E6</f>
-        <v>7195.2337305224582</v>
-      </c>
-      <c r="F19" s="192"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="190"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="209" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="122">
-        <v>50000</v>
-      </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="151">
-        <f>C7*D10</f>
-        <v>32698.870119156734</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="44">
-        <v>1</v>
-      </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="151">
-        <f>I22*C21</f>
-        <v>817.4717529789184</v>
-      </c>
-      <c r="J23" s="210">
-        <f>(I22+I23)*G13*(1+D6)</f>
-        <v>3711482.3917237488</v>
-      </c>
-      <c r="K23" s="75"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="151">
-        <f>C7*F10</f>
-        <v>76297.363611365712</v>
-      </c>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="151">
-        <f>I24*C21</f>
-        <v>1907.4340902841429</v>
-      </c>
-      <c r="J25" s="210">
-        <f>(I24+I25)*G13*(1+D6)</f>
-        <v>8660125.5806887466</v>
-      </c>
-      <c r="K25" s="75"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="7">
-        <v>4</v>
-      </c>
-      <c r="B26" s="279" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="280"/>
-      <c r="D26" s="280"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="281"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="I26" s="207">
-        <f>SUM(I22:I25)*G13*(1+D6)</f>
-        <v>12371607.972412497</v>
-      </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="183">
-        <v>10</v>
-      </c>
-      <c r="D27" s="223">
-        <f>C27/30</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="182">
-        <f>S14</f>
-        <v>298288.26236209477</v>
-      </c>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="208" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="182">
-        <f>T14</f>
-        <v>2681751.0197196607</v>
-      </c>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="80">
-        <f>D14*D16</f>
-        <v>9511388.935061723</v>
-      </c>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="184">
-        <v>500000</v>
-      </c>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="79">
-        <f>C28+C29+C30</f>
-        <v>3480039.2820817553</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="73">
-        <f>I29*F3/(1+F3)</f>
-        <v>1715168.4964865402</v>
-      </c>
-      <c r="J30" s="75"/>
-      <c r="K30" s="116"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="181"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I31" s="207">
-        <f>I29-I30</f>
-        <v>7796220.438575183</v>
-      </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="73">
-        <f>D14*F16</f>
-        <v>22193240.848477352</v>
-      </c>
-      <c r="J32" s="75"/>
-      <c r="K32" s="116"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="7">
-        <v>5</v>
-      </c>
-      <c r="B33" s="259" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="260"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="260"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="73">
-        <f>I32*F3/(1+F3)</f>
-        <v>4002059.8251352608</v>
-      </c>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="180">
-        <v>0.03</v>
-      </c>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I34" s="207">
-        <f>I32-I33</f>
-        <v>18191181.023342092</v>
-      </c>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="212">
-        <f>C8*D10</f>
-        <v>3711482.3917237488</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="269" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="270"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="213">
-        <f>D14*D16</f>
-        <v>9511388.935061723</v>
-      </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="271">
-        <f>SUM(C39:C42)+D41</f>
-        <v>-8890426.8159190677</v>
-      </c>
-      <c r="F36" s="272"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="74">
-        <f>I31+I34</f>
-        <v>25987401.461917274</v>
-      </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="214">
-        <f>C36*F3/(1+F3)</f>
-        <v>1715168.4964865402</v>
-      </c>
-      <c r="D37" s="165"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="74">
-        <f>I30+I33</f>
-        <v>5717228.3216218008</v>
-      </c>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="213">
-        <f>-(C35-(C36-C37))</f>
-        <v>4084738.0468514343</v>
-      </c>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="127">
-        <f>I36+I37</f>
-        <v>31704629.783539075</v>
-      </c>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="213">
-        <f>IF(C38&lt;0,-C8*F10,C38-C8*F10)</f>
-        <v>-4575387.5338373128</v>
-      </c>
-      <c r="D39" s="166"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="215">
-        <f>IF(C38&gt;0,0,C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="75"/>
-      <c r="J40" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="K40" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="L40" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="M40" s="75"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="213">
-        <f>IF(C39&lt;0,-E19*G13,IF((E19*G13-C39)&lt;0,0,-(E19*G13-C39)))</f>
-        <v>-785000.00000000012</v>
-      </c>
-      <c r="D41" s="215">
-        <f>IF(C42&lt;0,-C22,0)</f>
-        <v>-50000</v>
-      </c>
-      <c r="E41" s="217" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="216">
-        <f>IF(C39&lt;0,0,IF((E19*G13-C39)&lt;0,C39-E19*G13,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" s="73">
-        <f>J23</f>
-        <v>3711482.3917237488</v>
-      </c>
-      <c r="J41" s="73">
-        <f>I31-I41</f>
-        <v>4084738.0468514343</v>
-      </c>
-      <c r="K41" s="73">
-        <f>IF(J41&lt;0,J41*C34*(C9+C20+C23+C24),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="74">
-        <f>I41*C34*(C9+C20+C23+C24)</f>
-        <v>1057772.4816412684</v>
-      </c>
-      <c r="M41" s="74"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="215">
-        <f>IF(F41&gt;0,F41-F30,-F30)</f>
-        <v>-3480039.2820817553</v>
-      </c>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="73">
-        <f>J25</f>
-        <v>8660125.5806887466</v>
-      </c>
-      <c r="J42" s="73">
-        <f>J41-I42</f>
-        <v>-4575387.5338373128</v>
-      </c>
-      <c r="K42" s="73">
-        <f>IF(K41&lt;0,-I42*C34*(C20+C23+C24),IF(J42&gt;0,0,J42*C34*(C20+C23+C24)))</f>
-        <v>-480415.6910529178</v>
-      </c>
-      <c r="L42" s="74">
-        <f>I42*C34*(C20+C23+C24)</f>
-        <v>909313.1859723184</v>
-      </c>
-      <c r="M42" s="74"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="221">
-        <f>IF(C38&gt;0,0,C38*C34*(C9+C20+C23+C24))</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="73">
-        <f>E19*G13</f>
-        <v>785000.00000000012</v>
-      </c>
-      <c r="J43" s="73">
-        <f>J42-I43</f>
-        <v>-5360387.5338373128</v>
-      </c>
-      <c r="K43" s="73">
-        <f>IF((K41+K42)&lt;0,-I43*C34*(C20+C23+C24),IF(J43&gt;0,0,J43*C34*(C20+C23+C24)))</f>
-        <v>-82425.000000000015</v>
-      </c>
-      <c r="L43" s="74">
-        <f>I43*C34*(C20+C23+C24)</f>
-        <v>82425.000000000015</v>
-      </c>
-      <c r="M43" s="75"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="213">
-        <f>IF(C39&gt;0,0,C39*C34*(C23+C24+C20))</f>
-        <v>-480415.6910529178</v>
-      </c>
-      <c r="D44" s="220">
-        <f>C41*C34*(C23+C24+C20)+D41*C34*(C23+C24)</f>
-        <v>-85425.000000000015</v>
-      </c>
-      <c r="E44" s="219" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="218">
-        <f>E36-C35</f>
-        <v>-12601909.207642816</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="73">
-        <f>S14+T14+C30</f>
-        <v>3480039.2820817553</v>
-      </c>
-      <c r="J44" s="73">
-        <f>J43-I44</f>
-        <v>-8840426.8159190677</v>
-      </c>
-      <c r="K44" s="73">
-        <f>IF((K41+K42+K43)&lt;0,-I44*C34*(C23+C24),J44*C34*(C23+C24))</f>
-        <v>-208802.35692490533</v>
-      </c>
-      <c r="L44" s="74">
-        <f>I44*C34*(C23+C24)</f>
-        <v>208802.35692490533</v>
-      </c>
-      <c r="M44" s="75"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="213">
-        <f>IF(C42&lt;0,C42*C34*(C23+C24),0)</f>
-        <v>-208802.35692490533</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="73">
-        <f>C22</f>
-        <v>50000</v>
-      </c>
-      <c r="J45" s="73">
-        <f>J44-I45</f>
-        <v>-8890426.8159190677</v>
-      </c>
-      <c r="K45" s="73">
-        <f>IF((K41+K42+K43+K44)&lt;0,-I45*C34*(C24+C23),J45*C34*(C24+C23))</f>
-        <v>-3000</v>
-      </c>
-      <c r="L45" s="74">
-        <f>I45*C34*(C24+C23)</f>
-        <v>3000</v>
-      </c>
-      <c r="M45" s="75"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="222">
-        <f>-SUM(C43:D45)</f>
-        <v>774643.04797782318</v>
-      </c>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="211" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="73">
-        <f>SUM(I41:I45)</f>
-        <v>16686647.25449425</v>
-      </c>
-      <c r="J47" s="73">
-        <f>J45</f>
-        <v>-8890426.8159190677</v>
-      </c>
-      <c r="K47" s="73">
-        <f>SUM(K41:K45)</f>
-        <v>-774643.04797782318</v>
-      </c>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="7">
-        <v>6</v>
-      </c>
-      <c r="B48" s="255" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="256"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="256"/>
-      <c r="F48" s="257"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="225">
-        <f>D14*D49</f>
-        <v>634092.59567078156</v>
-      </c>
-      <c r="D49" s="85">
-        <v>0.02</v>
-      </c>
-      <c r="E49" s="86"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="224">
-        <f>E50</f>
-        <v>2598740.1461917274</v>
-      </c>
-      <c r="D50" s="89">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="121">
-        <f>D14/(1+F3)*D50</f>
-        <v>2598740.1461917274</v>
-      </c>
-      <c r="F50" s="104"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="122">
-        <v>0</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="226">
-        <f>SUM(C49:C51)</f>
-        <v>3232832.7418625089</v>
-      </c>
-      <c r="D52" s="92"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="255" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="256"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="256"/>
-      <c r="F54" s="257"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="84">
-        <f>D14-(F30+C8+C46+C22+E19*G13+C52)</f>
-        <v>11010506.739204489</v>
-      </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="88">
-        <f>C55/(1+F3)</f>
-        <v>9025005.5239381064</v>
-      </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="75"/>
-    </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="94">
-        <f>C56/1.25</f>
-        <v>7220004.4191504847</v>
-      </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="97">
-        <v>0.9</v>
-      </c>
-      <c r="F58" s="99">
-        <f>C8+F30+C22+E19*G13</f>
-        <v>16686647.254494252</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="75"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="95">
-        <f>C58/(D14/1.2)</f>
-        <v>0.27327255868096906</v>
-      </c>
-      <c r="D60" s="89"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="95">
-        <f>C50/C58</f>
-        <v>0.35993608803046945</v>
-      </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="99">
-        <f>D14-F58</f>
-        <v>15017982.529044824</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="39"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="275" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="276"/>
-      <c r="D65" s="233"/>
-      <c r="E65" s="233"/>
-      <c r="F65" s="233"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="75"/>
-      <c r="B66" s="227" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="228">
-        <f>D14</f>
-        <v>31704629.783539075</v>
-      </c>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="75"/>
-      <c r="B67" s="229" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="230">
-        <f>C66-C68</f>
-        <v>5717228.3216218017</v>
-      </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A68" s="75"/>
-      <c r="B68" s="231" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="232">
-        <f>C66/(1+F3)</f>
-        <v>25987401.461917274</v>
-      </c>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="75"/>
-      <c r="H68" s="75"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="75"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="75"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
-      <c r="A70" s="75"/>
-      <c r="B70" s="227" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="228">
-        <f>(I47-C29)+C46/(1+F3)</f>
-        <v>14639849.552789198</v>
-      </c>
-      <c r="D70" s="75"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A71" s="75"/>
-      <c r="B71" s="231" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="232">
-        <f>C50+C49/(1+F3)</f>
-        <v>3118488.1754300729</v>
-      </c>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A72" s="75"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="75"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="75"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
-      <c r="A73" s="75"/>
-      <c r="B73" s="227" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="228">
-        <f>C68-(C70+C71)</f>
-        <v>8229063.733698003</v>
-      </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="75"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A74" s="75"/>
-      <c r="B74" s="231" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="234">
-        <f>C73/1.25</f>
-        <v>6583250.9869584022</v>
-      </c>
-      <c r="D74" s="75"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="75"/>
-      <c r="H74" s="75"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="75"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="B76" s="227" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="235">
-        <f>C74/C68</f>
-        <v>0.25332471184568789</v>
-      </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="75"/>
-      <c r="B77" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="236">
-        <f>C50/C74</f>
-        <v>0.3947502763209092</v>
-      </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B48:F48"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 D19 Y2" xr:uid="{C9125241-DA88-894A-B7F0-3DB6679187C7}">
-      <formula1>$G$6:$G$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{5498501C-A748-0B48-A57B-850915255D1E}">
-      <formula1>$G$7:$G$11</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>